--- a/WebContent/Manager/GatopolisManager.xlsx
+++ b/WebContent/Manager/GatopolisManager.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="48620" yWindow="1560" windowWidth="20620" windowHeight="12120"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Manager" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <t>SERIE</t>
   </si>
   <si>
-    <t>PERIODO (Manhã/Tarde)</t>
+    <t>PERIODO (MANHÃ/TARDE)</t>
   </si>
 </sst>
 </file>
@@ -432,16 +432,17 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="28.5" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" customWidth="1"/>
-    <col min="3" max="3" width="20.5" customWidth="1"/>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
-    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="1" max="1" width="44.5" customWidth="1"/>
+    <col min="2" max="2" width="37.1640625" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="23.83203125" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" ht="36" customHeight="1">

--- a/WebContent/Manager/GatopolisManager.xlsx
+++ b/WebContent/Manager/GatopolisManager.xlsx
@@ -19,14 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>NOME COMPLETO DO ALUNO</t>
   </si>
   <si>
-    <t>DATA DE NASCIMENTO ex: (31/12/2010)</t>
-  </si>
-  <si>
     <t>SEXO (Menino/Menina)</t>
   </si>
   <si>
@@ -36,7 +33,13 @@
     <t>SERIE</t>
   </si>
   <si>
-    <t>PERIODO (MANHÃ/TARDE)</t>
+    <t>DATA DE NASCIMENTO ex: (31122010)</t>
+  </si>
+  <si>
+    <t>PERIODO (Manhã = M / Tarde = T)</t>
+  </si>
+  <si>
+    <t>M</t>
   </si>
 </sst>
 </file>
@@ -88,7 +91,6 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -96,6 +98,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -429,11 +434,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
@@ -441,39 +444,35 @@
     <col min="2" max="2" width="37.1640625" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="23.83203125" customWidth="1"/>
+    <col min="5" max="5" width="33.6640625" style="4" customWidth="1"/>
     <col min="6" max="6" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" ht="36" customHeight="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="36" customHeight="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="3"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="B4" s="1"/>
+      <c r="E2" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
